--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>24.759128</v>
+        <v>0.006053333333333333</v>
       </c>
       <c r="N2">
-        <v>74.277384</v>
+        <v>0.01816</v>
       </c>
       <c r="O2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="P2">
-        <v>0.9895671066967037</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="Q2">
-        <v>150.340668661768</v>
+        <v>0.006337038942222223</v>
       </c>
       <c r="R2">
-        <v>1353.066017955912</v>
+        <v>0.05703335047999999</v>
       </c>
       <c r="S2">
-        <v>0.003902851943495184</v>
+        <v>1.631471052076137E-07</v>
       </c>
       <c r="T2">
-        <v>0.003902851943495184</v>
+        <v>1.631471052076137E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2610326666666666</v>
+        <v>24.759128</v>
       </c>
       <c r="N3">
-        <v>0.783098</v>
+        <v>74.277384</v>
       </c>
       <c r="O3">
-        <v>0.0104328933032964</v>
+        <v>0.970608576546119</v>
       </c>
       <c r="P3">
-        <v>0.0104328933032964</v>
+        <v>0.9706085765461191</v>
       </c>
       <c r="Q3">
-        <v>1.585024547279334</v>
+        <v>25.91953055806134</v>
       </c>
       <c r="R3">
-        <v>14.265220925514</v>
+        <v>233.275775022552</v>
       </c>
       <c r="S3">
-        <v>4.114732354127053E-05</v>
+        <v>0.0006672984681714934</v>
       </c>
       <c r="T3">
-        <v>4.114732354127053E-05</v>
+        <v>0.0006672984681714935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1480.851806666667</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>4442.555420000001</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.9618498744646554</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.9618498744646552</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.759128</v>
+        <v>0.7436886666666668</v>
       </c>
       <c r="N4">
-        <v>74.277384</v>
+        <v>2.231066</v>
       </c>
       <c r="O4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721258</v>
       </c>
       <c r="P4">
-        <v>0.9895671066967037</v>
+        <v>0.02915412037721259</v>
       </c>
       <c r="Q4">
-        <v>36664.59943029126</v>
+        <v>0.778543619199778</v>
       </c>
       <c r="R4">
-        <v>329981.3948726213</v>
+        <v>7.006892572798001</v>
       </c>
       <c r="S4">
-        <v>0.9518149973505767</v>
+        <v>2.004361010061288E-05</v>
       </c>
       <c r="T4">
-        <v>0.9518149973505765</v>
+        <v>2.004361010061288E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,48 +723,48 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2610326666666666</v>
+        <v>0.006053333333333333</v>
       </c>
       <c r="N5">
-        <v>0.783098</v>
+        <v>0.01816</v>
       </c>
       <c r="O5">
-        <v>0.0104328933032964</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="P5">
-        <v>0.0104328933032964</v>
+        <v>0.0002373030766683641</v>
       </c>
       <c r="Q5">
-        <v>386.5506960323511</v>
+        <v>8.964089603022222</v>
       </c>
       <c r="R5">
-        <v>3478.95626429116</v>
+        <v>80.67680642719999</v>
       </c>
       <c r="S5">
-        <v>0.01003487711407879</v>
+        <v>0.0002307805400737993</v>
       </c>
       <c r="T5">
-        <v>0.01003487711407878</v>
+        <v>0.0002307805400737993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.663316</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>157.989948</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.0342061262683083</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.0342061262683083</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>74.277384</v>
       </c>
       <c r="O6">
-        <v>0.9895671066967037</v>
+        <v>0.970608576546119</v>
       </c>
       <c r="P6">
-        <v>0.9895671066967037</v>
+        <v>0.9706085765461191</v>
       </c>
       <c r="Q6">
-        <v>1303.897781748448</v>
+        <v>36664.59943029125</v>
       </c>
       <c r="R6">
-        <v>11735.08003573603</v>
+        <v>329981.3948726212</v>
       </c>
       <c r="S6">
-        <v>0.03384925740263196</v>
+        <v>0.9439303301095251</v>
       </c>
       <c r="T6">
-        <v>0.03384925740263196</v>
+        <v>0.9439303301095253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.663316</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>157.989948</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.0342061262683083</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.0342061262683083</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2610326666666666</v>
+        <v>0.7436886666666668</v>
       </c>
       <c r="N7">
-        <v>0.783098</v>
+        <v>2.231066</v>
       </c>
       <c r="O7">
-        <v>0.0104328933032964</v>
+        <v>0.02915412037721258</v>
       </c>
       <c r="P7">
-        <v>0.0104328933032964</v>
+        <v>0.02915412037721259</v>
       </c>
       <c r="Q7">
-        <v>13.74684581098933</v>
+        <v>1101.292705630858</v>
       </c>
       <c r="R7">
-        <v>123.721612298904</v>
+        <v>9911.634350677721</v>
       </c>
       <c r="S7">
-        <v>0.0003568688656763447</v>
+        <v>0.02835278724781339</v>
       </c>
       <c r="T7">
-        <v>0.0003568688656763447</v>
+        <v>0.0283527872478134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>40.80635833333333</v>
+      </c>
+      <c r="H8">
+        <v>122.419075</v>
+      </c>
+      <c r="I8">
+        <v>0.02679859687721029</v>
+      </c>
+      <c r="J8">
+        <v>0.0267985968772103</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006053333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.01816</v>
+      </c>
+      <c r="O8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="P8">
+        <v>0.0002373030766683641</v>
+      </c>
+      <c r="Q8">
+        <v>0.2470144891111111</v>
+      </c>
+      <c r="R8">
+        <v>2.223130402</v>
+      </c>
+      <c r="S8">
+        <v>6.359389489357217E-06</v>
+      </c>
+      <c r="T8">
+        <v>6.359389489357219E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.80635833333333</v>
+      </c>
+      <c r="H9">
+        <v>122.419075</v>
+      </c>
+      <c r="I9">
+        <v>0.02679859687721029</v>
+      </c>
+      <c r="J9">
+        <v>0.0267985968772103</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.759128</v>
+      </c>
+      <c r="N9">
+        <v>74.277384</v>
+      </c>
+      <c r="O9">
+        <v>0.970608576546119</v>
+      </c>
+      <c r="P9">
+        <v>0.9706085765461191</v>
+      </c>
+      <c r="Q9">
+        <v>1010.329849188867</v>
+      </c>
+      <c r="R9">
+        <v>9092.9686426998</v>
+      </c>
+      <c r="S9">
+        <v>0.02601094796842235</v>
+      </c>
+      <c r="T9">
+        <v>0.02601094796842236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>40.80635833333333</v>
+      </c>
+      <c r="H10">
+        <v>122.419075</v>
+      </c>
+      <c r="I10">
+        <v>0.02679859687721029</v>
+      </c>
+      <c r="J10">
+        <v>0.0267985968772103</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7436886666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.231066</v>
+      </c>
+      <c r="O10">
+        <v>0.02915412037721258</v>
+      </c>
+      <c r="P10">
+        <v>0.02915412037721259</v>
+      </c>
+      <c r="Q10">
+        <v>30.34722622043889</v>
+      </c>
+      <c r="R10">
+        <v>273.12503598395</v>
+      </c>
+      <c r="S10">
+        <v>0.0007812895192985821</v>
+      </c>
+      <c r="T10">
+        <v>0.0007812895192985823</v>
       </c>
     </row>
   </sheetData>
